--- a/biology/Botanique/Ludwig_Bossler/Ludwig_Bossler.xlsx
+++ b/biology/Botanique/Ludwig_Bossler/Ludwig_Bossler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig August Bossler, né le 10 décembre 1838 à Darmstadt et mort le 21 mars 1913, est un philologue allemand et botaniste alsacien.
 </t>
@@ -511,15 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Bossler est le fils de Christian Ludwig Bossler (1810-1877) et de Mathilde Hegar (1819-1890), sous le nom de baptême de Ludwig August. Son père était directeur du gymnasium de Darmstadt, tandis que sa mère était la fille du médecin de la cour du grand-duc de Hesse.   
 Bossler a étudié les mathématiques et les sciences naturelles aux universités de Giessen et de Göttingen. Après avoir terminé ses études, il a poursuivi ses études de langues et littératures romanes à l'université de Tübingen, où il a obtenu son doctorat en 1866.   
 Ensuite, Ludwig Bossler a été professeur au gymnasium de Gera de 1869 à 1871. Il a dirigé le gymnasium de Wissembourg de 1871 à 1874. En dernier lieu, Bossler a été directeur du gymnasium de Bischwiller.
-Il appartient à la même famille que Jean Bosler et Heinrich Philipp Bossler[1]. 
-Travailler en Alsace
-Ludwig Bossler s'est longuement penché sur la toponymie du Bas-Rhin et sur la botanique alsacienne. Il a comblé une lacune de l'époque en décrivant en allemand la flore de la nouvelle Alsace-Lorraine en 1877 et en classant les différents genres de plantes selon le système de Carl Linné. Le livre Flora der Gefässpflanzen in Elsass-Lothringen (Flore d'Alsace-Lorraine) de Bossler, qualifié de célèbre, a été revu et complété par le botaniste Christian August Friedrich Garcke[2].
-Ludwig Bossler a également travaillé comme toponymiste. Au début, il a étudié les noms de rues à Wissembourg et s'est ensuite concentré sur les noms de lieux dans toute l'Alsace[3].
+Il appartient à la même famille que Jean Bosler et Heinrich Philipp Bossler. 
 </t>
         </is>
       </c>
@@ -545,10 +556,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Travailler en Alsace</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludwig Bossler s'est longuement penché sur la toponymie du Bas-Rhin et sur la botanique alsacienne. Il a comblé une lacune de l'époque en décrivant en allemand la flore de la nouvelle Alsace-Lorraine en 1877 et en classant les différents genres de plantes selon le système de Carl Linné. Le livre Flora der Gefässpflanzen in Elsass-Lothringen (Flore d'Alsace-Lorraine) de Bossler, qualifié de célèbre, a été revu et complété par le botaniste Christian August Friedrich Garcke.
+Ludwig Bossler a également travaillé comme toponymiste. Au début, il a étudié les noms de rues à Wissembourg et s'est ensuite concentré sur les noms de lieux dans toute l'Alsace.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ludwig_Bossler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ludwig_Bossler</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>'(de) « Die Ortsnamen des Kreises Weissenburg im Elsass », dans Zeitschrift für Deutsche Philologie, volume 6, 1875, p. 153-159, 329  (ISSN 0044-2496).
 (de) Flora der Gefässpflanzen in Elsass-Lothringen. Als Taschenbuch für botanische Excursionen, Strasbourg 1877 (OCLC 1033703831).</t>
